--- a/natmiOut/OldD0/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.72844643797</v>
+        <v>120.6115993333333</v>
       </c>
       <c r="H2">
-        <v>109.72844643797</v>
+        <v>361.834798</v>
       </c>
       <c r="I2">
-        <v>0.405746132911943</v>
+        <v>0.4273073648704228</v>
       </c>
       <c r="J2">
-        <v>0.405746132911943</v>
+        <v>0.4273073648704228</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.06522918415641</v>
+        <v>57.24915866666667</v>
       </c>
       <c r="N2">
-        <v>9.06522918415641</v>
+        <v>171.747476</v>
       </c>
       <c r="O2">
-        <v>0.9048336782776899</v>
+        <v>0.9704198736548433</v>
       </c>
       <c r="P2">
-        <v>0.9048336782776899</v>
+        <v>0.9704198736548435</v>
       </c>
       <c r="Q2">
-        <v>994.7135149816291</v>
+        <v>6904.912587274427</v>
       </c>
       <c r="R2">
-        <v>994.7135149816291</v>
+        <v>62144.21328546984</v>
       </c>
       <c r="S2">
-        <v>0.3671327658896618</v>
+        <v>0.4146675590293397</v>
       </c>
       <c r="T2">
-        <v>0.3671327658896618</v>
+        <v>0.4146675590293398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,57 +590,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.72844643797</v>
+        <v>120.6115993333333</v>
       </c>
       <c r="H3">
-        <v>109.72844643797</v>
+        <v>361.834798</v>
       </c>
       <c r="I3">
-        <v>0.405746132911943</v>
+        <v>0.4273073648704228</v>
       </c>
       <c r="J3">
-        <v>0.405746132911943</v>
+        <v>0.4273073648704228</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.953439883745289</v>
+        <v>1.569166</v>
       </c>
       <c r="N3">
-        <v>0.953439883745289</v>
+        <v>4.707498</v>
       </c>
       <c r="O3">
-        <v>0.09516632172231002</v>
+        <v>0.02659864191768634</v>
       </c>
       <c r="P3">
-        <v>0.09516632172231002</v>
+        <v>0.02659864191768634</v>
       </c>
       <c r="Q3">
-        <v>104.6194772153693</v>
+        <v>189.2596208794893</v>
       </c>
       <c r="R3">
-        <v>104.6194772153693</v>
+        <v>1703.336587915404</v>
       </c>
       <c r="S3">
-        <v>0.03861336702228113</v>
+        <v>0.01136579558697852</v>
       </c>
       <c r="T3">
-        <v>0.03861336702228113</v>
+        <v>0.01136579558697852</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>133.772565691004</v>
+        <v>120.6115993333333</v>
       </c>
       <c r="H4">
-        <v>133.772565691004</v>
+        <v>361.834798</v>
       </c>
       <c r="I4">
-        <v>0.4946547862546944</v>
+        <v>0.4273073648704228</v>
       </c>
       <c r="J4">
-        <v>0.4946547862546944</v>
+        <v>0.4273073648704228</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>9.06522918415641</v>
+        <v>0.1758903333333333</v>
       </c>
       <c r="N4">
-        <v>9.06522918415641</v>
+        <v>0.527671</v>
       </c>
       <c r="O4">
-        <v>0.9048336782776899</v>
+        <v>0.002981484427470275</v>
       </c>
       <c r="P4">
-        <v>0.9048336782776899</v>
+        <v>0.002981484427470276</v>
       </c>
       <c r="Q4">
-        <v>1212.67896654157</v>
+        <v>21.21441441060644</v>
       </c>
       <c r="R4">
-        <v>1212.67896654157</v>
+        <v>190.929729695458</v>
       </c>
       <c r="S4">
-        <v>0.4475803097244996</v>
+        <v>0.001274010254104524</v>
       </c>
       <c r="T4">
-        <v>0.4475803097244996</v>
+        <v>0.001274010254104525</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>133.772565691004</v>
+        <v>134.43072</v>
       </c>
       <c r="H5">
-        <v>133.772565691004</v>
+        <v>403.29216</v>
       </c>
       <c r="I5">
-        <v>0.4946547862546944</v>
+        <v>0.4762662715555095</v>
       </c>
       <c r="J5">
-        <v>0.4946547862546944</v>
+        <v>0.4762662715555095</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.953439883745289</v>
+        <v>57.24915866666667</v>
       </c>
       <c r="N5">
-        <v>0.953439883745289</v>
+        <v>171.747476</v>
       </c>
       <c r="O5">
-        <v>0.09516632172231002</v>
+        <v>0.9704198736548433</v>
       </c>
       <c r="P5">
-        <v>0.09516632172231002</v>
+        <v>0.9704198736548435</v>
       </c>
       <c r="Q5">
-        <v>127.5440994807399</v>
+        <v>7696.04561895424</v>
       </c>
       <c r="R5">
-        <v>127.5440994807399</v>
+        <v>69264.41057058817</v>
       </c>
       <c r="S5">
-        <v>0.04707447653019474</v>
+        <v>0.4621782550689609</v>
       </c>
       <c r="T5">
-        <v>0.04707447653019474</v>
+        <v>0.462178255068961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.9351979476943</v>
+        <v>134.43072</v>
       </c>
       <c r="H6">
-        <v>26.9351979476943</v>
+        <v>403.29216</v>
       </c>
       <c r="I6">
-        <v>0.09959908083336254</v>
+        <v>0.4762662715555095</v>
       </c>
       <c r="J6">
-        <v>0.09959908083336254</v>
+        <v>0.4762662715555095</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.06522918415641</v>
+        <v>1.569166</v>
       </c>
       <c r="N6">
-        <v>9.06522918415641</v>
+        <v>4.707498</v>
       </c>
       <c r="O6">
-        <v>0.9048336782776899</v>
+        <v>0.02659864191768634</v>
       </c>
       <c r="P6">
-        <v>0.9048336782776899</v>
+        <v>0.02659864191768634</v>
       </c>
       <c r="Q6">
-        <v>244.1737425164682</v>
+        <v>210.94411517952</v>
       </c>
       <c r="R6">
-        <v>244.1737425164682</v>
+        <v>1898.49703661568</v>
       </c>
       <c r="S6">
-        <v>0.09012060266352839</v>
+        <v>0.01266803601457656</v>
       </c>
       <c r="T6">
-        <v>0.09012060266352839</v>
+        <v>0.01266803601457656</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +835,241 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>134.43072</v>
+      </c>
+      <c r="H7">
+        <v>403.29216</v>
+      </c>
+      <c r="I7">
+        <v>0.4762662715555095</v>
+      </c>
+      <c r="J7">
+        <v>0.4762662715555095</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1758903333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.527671</v>
+      </c>
+      <c r="O7">
+        <v>0.002981484427470275</v>
+      </c>
+      <c r="P7">
+        <v>0.002981484427470276</v>
+      </c>
+      <c r="Q7">
+        <v>23.64506415104</v>
+      </c>
+      <c r="R7">
+        <v>212.80557735936</v>
+      </c>
+      <c r="S7">
+        <v>0.001419980471972081</v>
+      </c>
+      <c r="T7">
+        <v>0.001419980471972081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>27.21726533333333</v>
+      </c>
+      <c r="H8">
+        <v>81.651796</v>
+      </c>
+      <c r="I8">
+        <v>0.09642636357406766</v>
+      </c>
+      <c r="J8">
+        <v>0.09642636357406766</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>57.24915866666667</v>
+      </c>
+      <c r="N8">
+        <v>171.747476</v>
+      </c>
+      <c r="O8">
+        <v>0.9704198736548433</v>
+      </c>
+      <c r="P8">
+        <v>0.9704198736548435</v>
+      </c>
+      <c r="Q8">
+        <v>1558.165541540766</v>
+      </c>
+      <c r="R8">
+        <v>14023.4898738669</v>
+      </c>
+      <c r="S8">
+        <v>0.09357405955654272</v>
+      </c>
+      <c r="T8">
+        <v>0.09357405955654274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>26.9351979476943</v>
-      </c>
-      <c r="H7">
-        <v>26.9351979476943</v>
-      </c>
-      <c r="I7">
-        <v>0.09959908083336254</v>
-      </c>
-      <c r="J7">
-        <v>0.09959908083336254</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.953439883745289</v>
-      </c>
-      <c r="N7">
-        <v>0.953439883745289</v>
-      </c>
-      <c r="O7">
-        <v>0.09516632172231002</v>
-      </c>
-      <c r="P7">
-        <v>0.09516632172231002</v>
-      </c>
-      <c r="Q7">
-        <v>25.681091999906</v>
-      </c>
-      <c r="R7">
-        <v>25.681091999906</v>
-      </c>
-      <c r="S7">
-        <v>0.00947847816983414</v>
-      </c>
-      <c r="T7">
-        <v>0.00947847816983414</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>27.21726533333333</v>
+      </c>
+      <c r="H9">
+        <v>81.651796</v>
+      </c>
+      <c r="I9">
+        <v>0.09642636357406766</v>
+      </c>
+      <c r="J9">
+        <v>0.09642636357406766</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.569166</v>
+      </c>
+      <c r="N9">
+        <v>4.707498</v>
+      </c>
+      <c r="O9">
+        <v>0.02659864191768634</v>
+      </c>
+      <c r="P9">
+        <v>0.02659864191768634</v>
+      </c>
+      <c r="Q9">
+        <v>42.70840737404534</v>
+      </c>
+      <c r="R9">
+        <v>384.375666366408</v>
+      </c>
+      <c r="S9">
+        <v>0.002564810316131259</v>
+      </c>
+      <c r="T9">
+        <v>0.002564810316131259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>27.21726533333333</v>
+      </c>
+      <c r="H10">
+        <v>81.651796</v>
+      </c>
+      <c r="I10">
+        <v>0.09642636357406766</v>
+      </c>
+      <c r="J10">
+        <v>0.09642636357406766</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1758903333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.527671</v>
+      </c>
+      <c r="O10">
+        <v>0.002981484427470275</v>
+      </c>
+      <c r="P10">
+        <v>0.002981484427470276</v>
+      </c>
+      <c r="Q10">
+        <v>4.787253871901778</v>
+      </c>
+      <c r="R10">
+        <v>43.085284847116</v>
+      </c>
+      <c r="S10">
+        <v>0.0002874937013936697</v>
+      </c>
+      <c r="T10">
+        <v>0.0002874937013936698</v>
       </c>
     </row>
   </sheetData>
